--- a/Projekt_Archivstatistik/Archivstatistik_Transposed_neu.xlsx
+++ b/Projekt_Archivstatistik/Archivstatistik_Transposed_neu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edzardschade/Desktop/Edzard_CAS/Projekt_Archivstatistik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A1E186-9EB6-A74D-8A9B-FBDA40A77921}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37247A3-308A-8942-A827-6563184FE1F9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20420" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transposed" sheetId="4" r:id="rId1"/>
@@ -3824,8 +3824,8 @@
   </sheetPr>
   <dimension ref="A1:AG119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="268" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="182" zoomScaleNormal="353" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9677,7 +9677,9 @@
       <c r="B61" s="50">
         <v>7</v>
       </c>
-      <c r="C61" s="50"/>
+      <c r="C61" s="50">
+        <v>1062238</v>
+      </c>
       <c r="D61" s="51">
         <v>2016</v>
       </c>
@@ -10065,7 +10067,9 @@
       <c r="B65" s="50">
         <v>6</v>
       </c>
-      <c r="C65" s="50"/>
+      <c r="C65" s="50">
+        <v>642878</v>
+      </c>
       <c r="D65" s="51">
         <v>2016</v>
       </c>

--- a/Projekt_Archivstatistik/Archivstatistik_Transposed_neu.xlsx
+++ b/Projekt_Archivstatistik/Archivstatistik_Transposed_neu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edzardschade/Desktop/Edzard_CAS/Projekt_Archivstatistik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37247A3-308A-8942-A827-6563184FE1F9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927C59B1-9CF6-D043-A0EF-DF4197710839}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20420" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3355,7 +3355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3505,6 +3505,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3824,8 +3825,8 @@
   </sheetPr>
   <dimension ref="A1:AG119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="182" zoomScaleNormal="353" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="182" zoomScaleNormal="353" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10845,7 +10846,9 @@
       <c r="B73" s="50">
         <v>14</v>
       </c>
-      <c r="C73" s="50"/>
+      <c r="C73">
+        <v>530120</v>
+      </c>
       <c r="D73" s="51">
         <v>2016</v>
       </c>
@@ -11621,7 +11624,7 @@
       <c r="B81" s="50">
         <v>5</v>
       </c>
-      <c r="C81" s="50"/>
+      <c r="C81"/>
       <c r="D81" s="51">
         <v>2016</v>
       </c>
@@ -12009,7 +12012,9 @@
       <c r="B85" s="50">
         <v>20</v>
       </c>
-      <c r="C85" s="50"/>
+      <c r="C85">
+        <v>3246502</v>
+      </c>
       <c r="D85" s="51">
         <v>2016</v>
       </c>
@@ -12785,7 +12790,9 @@
       <c r="B93" s="50">
         <v>4</v>
       </c>
-      <c r="C93" s="50"/>
+      <c r="C93">
+        <v>1107168</v>
+      </c>
       <c r="D93" s="51">
         <v>2016</v>
       </c>
@@ -13270,7 +13277,6 @@
       <c r="B98" s="50">
         <v>23</v>
       </c>
-      <c r="C98" s="50"/>
       <c r="D98" s="51">
         <v>2013</v>
       </c>
@@ -13561,7 +13567,9 @@
       <c r="B101" s="50">
         <v>23</v>
       </c>
-      <c r="C101" s="50"/>
+      <c r="C101">
+        <v>2242378</v>
+      </c>
       <c r="D101" s="51">
         <v>2016</v>
       </c>
@@ -13852,7 +13860,7 @@
       <c r="B104" s="50">
         <v>9</v>
       </c>
-      <c r="C104" s="50"/>
+      <c r="C104" s="57"/>
       <c r="D104" s="51">
         <v>2015</v>
       </c>
@@ -13949,7 +13957,9 @@
       <c r="B105" s="50">
         <v>9</v>
       </c>
-      <c r="C105" s="50"/>
+      <c r="C105" s="50">
+        <v>1976163</v>
+      </c>
       <c r="D105" s="51">
         <v>2016</v>
       </c>
@@ -14337,7 +14347,9 @@
       <c r="B109" s="50">
         <v>1</v>
       </c>
-      <c r="C109" s="50"/>
+      <c r="C109" s="50">
+        <v>12500000</v>
+      </c>
       <c r="D109" s="51">
         <v>2016</v>
       </c>
